--- a/src/co/jp/part2/PETHOTEL_UML.xlsx
+++ b/src/co/jp/part2/PETHOTEL_UML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiaoyang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D658F58-DCF9-0942-8A1C-12448472B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F9B465-65DD-2F48-B3A4-AD18F0A8FD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="760" windowWidth="29400" windowHeight="18880" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="BK" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>アクティビティ図（UML形式）</t>
     <rPh sb="7" eb="8">
@@ -87,6 +86,10 @@
   </si>
   <si>
     <t>EXIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -332,7 +335,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3802742" y="432954"/>
-          <a:ext cx="2282799" cy="3235038"/>
+          <a:ext cx="2282799" cy="3241388"/>
           <a:chOff x="4822371" y="1884698"/>
           <a:chExt cx="1935582" cy="1413674"/>
         </a:xfrm>
@@ -408,7 +411,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4844143" y="1885767"/>
-            <a:ext cx="1905000" cy="214909"/>
+            <a:ext cx="1905000" cy="157838"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -462,8 +465,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4833257" y="2102273"/>
-            <a:ext cx="1905000" cy="680697"/>
+            <a:off x="4833257" y="2038704"/>
+            <a:ext cx="1905000" cy="744266"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -586,9 +589,24 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> Type</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Type</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -692,34 +710,62 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>+</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> getFeed(): String</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>+</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> getStatus():String</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>+</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> active():abstruct void</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -752,7 +798,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="892629" y="4708236"/>
+          <a:off x="892629" y="4714586"/>
           <a:ext cx="1884782" cy="2279073"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="2735133"/>
@@ -939,7 +985,12 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1026,7 +1077,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3308932" y="4672281"/>
+          <a:off x="3308932" y="4678631"/>
           <a:ext cx="1881510" cy="2326573"/>
           <a:chOff x="4833257" y="1698172"/>
           <a:chExt cx="1939690" cy="2790456"/>
@@ -1213,7 +1264,12 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1300,7 +1356,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5486115" y="4559300"/>
+          <a:off x="5486115" y="4565650"/>
           <a:ext cx="1888694" cy="2358736"/>
           <a:chOff x="4833257" y="1698172"/>
           <a:chExt cx="1939599" cy="2834640"/>
@@ -1490,7 +1546,12 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1754,7 +1815,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1378857" y="2313214"/>
+          <a:off x="1378857" y="2319564"/>
           <a:ext cx="1884782" cy="1333500"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="1600200"/>
@@ -2013,7 +2074,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7700818" y="1965036"/>
+          <a:off x="7700818" y="1971386"/>
           <a:ext cx="1884782" cy="1333501"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="1600200"/>
@@ -2563,7 +2624,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6168106" y="14659891"/>
+          <a:off x="6168106" y="14672591"/>
           <a:ext cx="490652" cy="405114"/>
           <a:chOff x="5743233" y="15074703"/>
           <a:chExt cx="505166" cy="513640"/>
@@ -4014,11 +4075,17 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10478324" y="2023579"/>
+          <a:off x="10478324" y="2029929"/>
           <a:ext cx="2282799" cy="1866580"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="1600200"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -4039,9 +4106,7 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln w="19050">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -4096,7 +4161,7 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:grpFill/>
           <a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4151,7 +4216,7 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:grpFill/>
           <a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4217,7 +4282,7 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:grpFill/>
           <a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5580,7 +5645,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>check=true</a:t>
+            <a:t>check=true;display=true</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
             <a:solidFill>
@@ -5963,7 +6028,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>checkout=true</a:t>
+            <a:t>checkout=true;display=true</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
             <a:solidFill>
@@ -7070,7 +7135,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18288000" y="27012900"/>
+          <a:off x="18288000" y="27028775"/>
           <a:ext cx="490652" cy="405113"/>
           <a:chOff x="5743233" y="15074703"/>
           <a:chExt cx="505166" cy="513640"/>
@@ -10957,7 +11022,7 @@
       <xdr:col>65</xdr:col>
       <xdr:colOff>113072</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>137072</xdr:rowOff>
+      <xdr:rowOff>10073</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10975,8 +11040,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16604839" y="27112813"/>
-          <a:ext cx="18233" cy="1317650"/>
+          <a:off x="16604839" y="27517971"/>
+          <a:ext cx="18233" cy="1209977"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11010,13 +11075,13 @@
       <xdr:col>59</xdr:col>
       <xdr:colOff>63355</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>180246</xdr:rowOff>
+      <xdr:rowOff>181626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>126750</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>18543</xdr:rowOff>
+      <xdr:rowOff>1069</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11034,8 +11099,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15049355" y="28661376"/>
-          <a:ext cx="825395" cy="26037"/>
+          <a:off x="15049355" y="29090001"/>
+          <a:ext cx="825395" cy="9943"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11069,13 +11134,13 @@
       <xdr:col>62</xdr:col>
       <xdr:colOff>126750</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>137072</xdr:rowOff>
+      <xdr:rowOff>10073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>99394</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>87754</xdr:rowOff>
+      <xdr:rowOff>182564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11090,8 +11155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15874750" y="28430463"/>
-          <a:ext cx="1496644" cy="513900"/>
+          <a:off x="15874750" y="28727948"/>
+          <a:ext cx="1496644" cy="743991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11142,11 +11207,22 @@
             </a:rPr>
             <a:t>異常です</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>help=true</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11157,13 +11233,13 @@
       <xdr:col>68</xdr:col>
       <xdr:colOff>99394</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>114751</xdr:rowOff>
+      <xdr:rowOff>116131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>240473</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>18543</xdr:rowOff>
+      <xdr:rowOff>1069</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11181,12 +11257,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17371394" y="19959881"/>
-          <a:ext cx="141079" cy="8727532"/>
+          <a:off x="17371394" y="20261506"/>
+          <a:ext cx="141079" cy="8838438"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 2211176"/>
+            <a:gd name="adj1" fmla="val 2197477"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -11515,8 +11591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD903C4C-E534-4A83-8DE1-C435133C73B0}">
   <dimension ref="D2:BU160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W116" sqref="W116"/>
+    <sheetView tabSelected="1" topLeftCell="AF102" zoomScale="160" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BO153" sqref="BO153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -15353,6 +15429,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="109" spans="50:70">
+      <c r="BD109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="111" spans="50:70">
       <c r="AX111" s="1" t="s">
         <v>8</v>
@@ -15394,6 +15475,11 @@
     <row r="122" spans="36:70">
       <c r="BO122" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="36:70">
+      <c r="AJ123" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="36:70">
